--- a/biology/Zoologie/Hexacorallia/Hexacorallia.xlsx
+++ b/biology/Zoologie/Hexacorallia/Hexacorallia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hexacorallia sont une sous-classe de cnidaires anthozoaires[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hexacorallia sont une sous-classe de cnidaires anthozoaires.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette sous-classe était auparavant connue sous le nom de Zoantharia chez Blainville (1830), alors que Gray (1832) voyait dans les Zoantharia un ordre de cette sous-classe.
 </t>
@@ -542,10 +556,12 @@
           <t>Caractéristiques scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hexacorallia reprennent toutes les caractéristiques des anthozoaires, auxquels ils appartiennent, mais ont en plus la particularité de présenter une symétrie hexamère[2], bien que certains membres aient une symétrie de 10 et de 12.
-De plus, tous les Hexacorallia ont des spirocystes, capsules sécrétant une structure collante permettant d'attraper ou de fixer des proies aux tentacules[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hexacorallia reprennent toutes les caractéristiques des anthozoaires, auxquels ils appartiennent, mais ont en plus la particularité de présenter une symétrie hexamère, bien que certains membres aient une symétrie de 10 et de 12.
+De plus, tous les Hexacorallia ont des spirocystes, capsules sécrétant une structure collante permettant d'attraper ou de fixer des proies aux tentacules.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Taxinomie et phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un article de 2014[3] a établi une phylogénie génétique des Hexacorallia, qui donnait comme groupe externe les Ceriantharia, comme groupe basal les Actiniaria, ensuite un groupe contenant Scleractinia et Corallimorpharia, enfin les Antipatharia et comme groupe le plus récent les Zoantharia (d'où émerge l'espèce isolée et encore non assignée Relicanthus daphneae)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un article de 2014 a établi une phylogénie génétique des Hexacorallia, qui donnait comme groupe externe les Ceriantharia, comme groupe basal les Actiniaria, ensuite un groupe contenant Scleractinia et Corallimorpharia, enfin les Antipatharia et comme groupe le plus récent les Zoantharia (d'où émerge l'espèce isolée et encore non assignée Relicanthus daphneae).
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Nombre d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hexacorallia comprennent aujourd'hui environ 4 300 espèces.
 </t>
@@ -636,9 +656,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (7 mars 2017)[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (7 mars 2017) :
 ordre Actiniaria Hertwig, 1882  — anémones de mer
 ordre Antipatharia  — coraux noirs
 ordre Corallimorpharia Carlgren, 1943  — corallimorphes
